--- a/results_excell.xlsx
+++ b/results_excell.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ror_files_v2\ror_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A22729-A2EC-4401-988E-322AB279C03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAA3C61-34FF-4E24-84A8-2AF9D547781C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Point cloud size</t>
   </si>
@@ -147,13 +147,115 @@
   </si>
   <si>
     <t>Core(8xDistanceModules)</t>
+  </si>
+  <si>
+    <t>Test 17</t>
+  </si>
+  <si>
+    <t>Test 18</t>
+  </si>
+  <si>
+    <t>Test 19</t>
+  </si>
+  <si>
+    <t>Test 20</t>
+  </si>
+  <si>
+    <t>Test 21</t>
+  </si>
+  <si>
+    <t>Test 22</t>
+  </si>
+  <si>
+    <t>Test 23</t>
+  </si>
+  <si>
+    <t>Test 24</t>
+  </si>
+  <si>
+    <t>Test 25</t>
+  </si>
+  <si>
+    <t>Test 26</t>
+  </si>
+  <si>
+    <t>Test 27</t>
+  </si>
+  <si>
+    <t>Test 28</t>
+  </si>
+  <si>
+    <t>Test 29</t>
+  </si>
+  <si>
+    <t>Test 30</t>
+  </si>
+  <si>
+    <t>Test 31</t>
+  </si>
+  <si>
+    <t>Test 32</t>
+  </si>
+  <si>
+    <t>Test 33</t>
+  </si>
+  <si>
+    <t>Test 34</t>
+  </si>
+  <si>
+    <t>Test 35</t>
+  </si>
+  <si>
+    <t>Test 36</t>
+  </si>
+  <si>
+    <t>Test 37</t>
+  </si>
+  <si>
+    <t>Test 38</t>
+  </si>
+  <si>
+    <t>Test 39</t>
+  </si>
+  <si>
+    <t>Test 40</t>
+  </si>
+  <si>
+    <t>Test 41</t>
+  </si>
+  <si>
+    <t>Test 42</t>
+  </si>
+  <si>
+    <t>Test 43</t>
+  </si>
+  <si>
+    <t>Test 44</t>
+  </si>
+  <si>
+    <t>Test 45</t>
+  </si>
+  <si>
+    <t>Test 46</t>
+  </si>
+  <si>
+    <t>Test 47</t>
+  </si>
+  <si>
+    <t>Test 48</t>
+  </si>
+  <si>
+    <t>Test 49</t>
+  </si>
+  <si>
+    <t>Test 50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +335,10 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Serif"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="9">
@@ -339,24 +445,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,10 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -680,10 +788,11 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -691,321 +800,1102 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="C3" t="s">
+    <row r="3" spans="2:10">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>466</v>
+      </c>
+      <c r="F5">
+        <v>261</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>94265383</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I53" si="0">(17500/C5)*(17500/D5)</f>
+        <v>306250000</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>812</v>
+      </c>
+      <c r="F6">
+        <v>324</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>49714000</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>153125000</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E7" s="2">
+        <v>1446</v>
+      </c>
+      <c r="F7">
+        <v>451</v>
+      </c>
+      <c r="G7" s="2">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6064769</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>76562500</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2743</v>
+      </c>
+      <c r="F8">
+        <v>706</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14835752</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>38281250</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="1">
-        <v>17887</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2082</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E9" s="2">
+        <v>5357</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1217</v>
+      </c>
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>19140625</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10572</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2240</v>
+      </c>
+      <c r="G10">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21025</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4287</v>
+      </c>
+      <c r="G11">
         <v>192</v>
       </c>
-      <c r="H4" s="2">
-        <v>1140012</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I16" si="0">(17500/C4)*(17500/D4)</f>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
         <v>4785156.25</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>919</v>
+      </c>
+      <c r="F12">
+        <v>376</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>153125000</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <f>D12*2</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1571</v>
+      </c>
+      <c r="F13">
+        <v>454</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>76562500</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D18" si="1">D13*2</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2873</v>
+      </c>
+      <c r="F14">
+        <v>612</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>38281250</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5477</v>
+      </c>
+      <c r="F15">
+        <v>930</v>
+      </c>
+      <c r="G15">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>19140625</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10717</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1568</v>
+      </c>
+      <c r="G16">
+        <v>96</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E5" s="1">
-        <v>17604</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2656</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E17" s="2">
+        <v>21147</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2846</v>
+      </c>
+      <c r="G17">
         <v>192</v>
       </c>
-      <c r="H5" s="2">
-        <v>1629212</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>4785156.25</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>42053</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5404</v>
+      </c>
+      <c r="G18">
+        <v>384</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2392578.125</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1915</v>
+      </c>
+      <c r="F19">
+        <v>606</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>76562500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D19*2</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3235</v>
+      </c>
+      <c r="F20">
+        <v>714</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>38281250</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D25" si="2">D20*2</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5831</v>
+      </c>
+      <c r="F21">
+        <v>934</v>
+      </c>
+      <c r="G21">
+        <v>48</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>19140625</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E22" s="2">
+        <v>11043</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1378</v>
+      </c>
+      <c r="G22">
+        <v>96</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21491</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G23">
+        <v>192</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>4785156.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="2">
+        <v>42351</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4058</v>
+      </c>
+      <c r="G24">
+        <v>384</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>2392578.125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>84163</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7638</v>
+      </c>
+      <c r="G25">
+        <v>768</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>1196289.0625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>18730</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2090</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4133</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1066</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>38281250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D26*2</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6748</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G27">
+        <v>48</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>19140625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D31" si="3">D27*2</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11927</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1578</v>
+      </c>
+      <c r="G28">
+        <v>96</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22351</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2274</v>
+      </c>
+      <c r="G29">
         <v>192</v>
       </c>
-      <c r="H6" s="2">
-        <v>903245</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>4785156.25</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E30" s="2">
+        <v>43247</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3674</v>
+      </c>
+      <c r="G30">
+        <v>384</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>2392578.125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>39222</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3698</v>
-      </c>
-      <c r="G7" s="1">
-        <v>384</v>
-      </c>
-      <c r="H7" s="2">
-        <v>271188</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E31" s="2">
+        <v>84967</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6482</v>
+      </c>
+      <c r="G31">
+        <v>768</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>1196289.0625</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <f>D31*2</f>
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>168591</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12106</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1536</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>598144.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>19140625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D33*2</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:D39" si="4">D34*2</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>4785156.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="0"/>
         <v>2392578.125</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>1196289.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>598144.53125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>299072.265625</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>9570312.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2">
+        <f>D40*2</f>
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>4785156.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:D45" si="5">D41*2</f>
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>2392578.125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>1196289.0625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="2">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>598144.53125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>299072.265625</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="2">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2">
+        <f>D45*2</f>
+        <v>64</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>149536.1328125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>4785156.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2">
+        <f>D47*2</f>
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>1315</v>
-      </c>
-      <c r="F8" s="1">
-        <v>444</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23486782</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>76562500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>2392578.125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2">
+        <v>64</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" ref="D49:D53" si="6">D48*2</f>
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>2399</v>
-      </c>
-      <c r="F9" s="1">
-        <v>590</v>
-      </c>
-      <c r="G9" s="1">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2">
-        <v>12048007</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>38281250</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>1196289.0625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2">
+        <v>64</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>4560</v>
-      </c>
-      <c r="F10" s="1">
-        <v>884</v>
-      </c>
-      <c r="G10" s="1">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>19140625</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>598144.53125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>9570312.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>299072.265625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2">
+        <v>64</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>4785156.25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>38281250</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>19140625</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>9570312.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>4785156.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>149536.1328125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2">
+        <v>64</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>74768.06640625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -1015,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1077,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/results_excell.xlsx
+++ b/results_excell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ror_files_v2\ror_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAA3C61-34FF-4E24-84A8-2AF9D547781C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF09138-D84E-4830-86BB-6F230BB54B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Point cloud size</t>
   </si>
@@ -250,16 +250,32 @@
   <si>
     <t>Test 50</t>
   </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Core*Distance Modules</t>
+  </si>
+  <si>
+    <t>%Utilization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -341,7 +357,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +406,19 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -414,37 +441,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="20"/>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="20" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="19" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="21">
+    <cellStyle name="40% - Cor4" xfId="20" builtinId="43"/>
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -459,7 +512,9 @@
     <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="19" builtinId="10"/>
     <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percentagem" xfId="18" builtinId="5"/>
     <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
@@ -475,6 +530,4778 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94265383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49425245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26747004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>14774511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8082390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4304508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2216731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-578E-4FE9-8589-532F443DFB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46426773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24431779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13246746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7333466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4010714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2138626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1103719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-578E-4FE9-8589-532F443DFB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22520213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11860150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6510215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3610671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1981640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1066634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>549002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-578E-4FE9-8589-532F443DFB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$26:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10658337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5646970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3114813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1769295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>982576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-578E-4FE9-8589-532F443DFB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16 core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$33:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4829953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2554960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>839810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1493-4DA2-ABEA-B6C099EE73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>32 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$40:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2187415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1111228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1493-4DA2-ABEA-B6C099EE73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>64 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$47:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$47:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>979202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1493-4DA2-ABEA-B6C099EE73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="164215583"/>
+        <c:axId val="164216415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="164215583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance modules</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164216415"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="164216415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164215583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1x64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2216731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2x32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2138626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4x16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1981640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8x8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1769295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16x4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1399808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>32x2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1111228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>64x1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>979202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3419-40BA-8B1B-05CAE3D465EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="315224848"/>
+        <c:axId val="315224432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315224848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315224432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315224432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315224848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cycles need per LUT use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2.0225694444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5243055555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2760416666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1905381944444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3250868055555554E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5885416666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1254340277777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9887152777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8185763888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2469618055555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3771701388888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6514756944444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1783854166666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1825217013888889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3116319444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4040798611111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5308159722222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7929687499999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3276909722222218E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18381510416666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36529079861111113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7938368055555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9288194444444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1766493055555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7009548611111107E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18770399305555555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36878038194444446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73173177083333329</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3984374999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6210937499999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11128038194444445</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20176649305555555</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38315538194444443</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.74537326388888892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.428220486111111</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10763020833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1567361111111111</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24256944444444445</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42919270833333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.79318576388888884</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4674696180555555</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.377200520833334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.31811631944444446</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42891927083333331</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61723958333333329</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.96773871527777777</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6403124999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5474739583333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>94265383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49425245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26747004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>14774511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8082390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4304508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2216731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46426773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24431779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13246746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7333466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4010714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2138626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1103719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22520213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11860150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6510215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3610671</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1981640</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1066634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>549002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10658337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5646970</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3114813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1769295</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>982576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>528546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>273279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4829953</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2554960</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1399808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>839810</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>478134</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>259908</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2187415</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1111228</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>611737</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>356298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>226255</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>128818</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66315</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>979202</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>498352</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>249357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144148</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFB9-411D-BF73-3ADB9F8AC650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510800688"/>
+        <c:axId val="510790704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510800688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Use</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510790704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510790704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510800688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>463323</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6478760B-F4F5-4B31-8660-E563BD7E76AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>242453</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE1D5E7-7CED-4CF5-8C06-B67A1B726B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>166507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26572715-1F42-44F4-A7A7-3FD76546DF94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,10 +5601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="I34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI57" sqref="AI57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -786,13 +5613,15 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -800,10 +5629,10 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="J3" s="3"/>
+    <row r="3" spans="2:12">
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:12">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -811,23 +5640,31 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -838,24 +5675,35 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <f>C5*D5</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>466</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>261</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="8">
         <v>94265383</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I53" si="0">(17500/C5)*(17500/D5)</f>
+      <c r="J5" s="2">
+        <f>(17500/C5)*(17500/D5)</f>
         <v>306250000</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="K5" s="2">
+        <f>(J5/(2+((C5*D5)/(C5+D5))))</f>
+        <v>122500000</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L35" si="0">(F5/230400)</f>
+        <v>2.0225694444444445E-3</v>
+      </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -866,24 +5714,35 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f>C6*D6</f>
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>812</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>324</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
-        <v>49714000</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I6" s="8">
+        <v>49425245</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(17500/C6)*(17500/D6)</f>
+        <v>153125000</v>
+      </c>
+      <c r="K6" s="2">
+        <f>(J6/(2+((C6*D6)/(C6+D6))))</f>
+        <v>57421875</v>
+      </c>
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
-        <v>153125000</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>3.5243055555555557E-3</v>
+      </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -893,25 +5752,36 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
+        <f>C7*D7</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>1446</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>451</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>12</v>
       </c>
-      <c r="H7" s="2">
-        <v>6064769</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
+        <v>26747004</v>
+      </c>
+      <c r="J7" s="2">
+        <f>(17500/C7)*(17500/D7)</f>
+        <v>76562500</v>
+      </c>
+      <c r="K7" s="2">
+        <f>(J7/(2+((C7*D7)/(C7+D7))))</f>
+        <v>27343750</v>
+      </c>
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
-        <v>76562500</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>6.2760416666666667E-3</v>
+      </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -921,25 +5791,36 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
+        <f>C8*D8</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
         <v>2743</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>706</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>24</v>
       </c>
-      <c r="H8" s="2">
-        <v>14835752</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
+        <v>14774511</v>
+      </c>
+      <c r="J8" s="2">
+        <f>(17500/C8)*(17500/D8)</f>
+        <v>38281250</v>
+      </c>
+      <c r="K8" s="2">
+        <f>(J8/(2+((C8*D8)/(C8+D8))))</f>
+        <v>13251201.923076924</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
-        <v>38281250</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>1.1905381944444444E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -949,23 +5830,36 @@
       <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>5357</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>1217</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>48</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
+        <v>8082390</v>
+      </c>
+      <c r="J9" s="2">
+        <f>(17500/C9)*(17500/D9)</f>
+        <v>19140625</v>
+      </c>
+      <c r="K9" s="2">
+        <f>(J9/(2+((C9*D9)/(C9+D9))))</f>
+        <v>6507812.5</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
-        <v>19140625</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>2.3250868055555554E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -975,49 +5869,75 @@
       <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
         <v>10572</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>2240</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>96</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="I10" s="8">
+        <v>4304508</v>
+      </c>
+      <c r="J10" s="2">
+        <f>(17500/C10)*(17500/D10)</f>
+        <v>9570312.5</v>
+      </c>
+      <c r="K10" s="2">
+        <f>(J10/(2+((C10*D10)/(C10+D10))))</f>
+        <v>3222656.25</v>
+      </c>
+      <c r="L10" s="11">
         <f t="shared" si="0"/>
-        <v>9570312.5</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>4.5885416666666665E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+    <row r="11" spans="2:12" ht="15">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>64</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
+        <f>C11*D11</f>
+        <v>64</v>
+      </c>
+      <c r="F11" s="6">
         <v>21025</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="6">
         <v>4287</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="5">
         <v>192</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
+        <v>2216731</v>
+      </c>
+      <c r="J11" s="6">
+        <f>(17500/C11)*(17500/D11)</f>
+        <v>4785156.25</v>
+      </c>
+      <c r="K11" s="2">
+        <f>(J11/(2+((C11*D11)/(C11+D11))))</f>
+        <v>1603274.0012886599</v>
+      </c>
+      <c r="L11" s="11">
         <f t="shared" si="0"/>
-        <v>4785156.25</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>9.1254340277777776E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1028,22 +5948,35 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <f>C12*D12</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>919</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>376</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="I12" s="8">
+        <v>46426773</v>
+      </c>
+      <c r="J12" s="2">
+        <f>(17500/C12)*(17500/D12)</f>
+        <v>153125000</v>
+      </c>
+      <c r="K12" s="2">
+        <f>(J12/(2+((C12+D12)/(C12*D12))))</f>
+        <v>43750000</v>
+      </c>
+      <c r="L12" s="11">
         <f t="shared" si="0"/>
-        <v>153125000</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>3.9887152777777777E-3</v>
+      </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1051,26 +5984,39 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <f>D12*2</f>
+        <f t="shared" ref="D13:D18" si="1">D12*2</f>
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
+        <f>C13*D13</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
         <v>1571</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>454</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
+        <v>24431779</v>
+      </c>
+      <c r="J13" s="2">
+        <f>(17500/C13)*(17500/D13)</f>
+        <v>76562500</v>
+      </c>
+      <c r="K13" s="2">
+        <f>(J13/(2+((C13+D13)/(C13*D13))))</f>
+        <v>25520833.333333332</v>
+      </c>
+      <c r="L13" s="11">
         <f t="shared" si="0"/>
-        <v>76562500</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>6.8185763888888888E-3</v>
+      </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1078,26 +6024,39 @@
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D18" si="1">D13*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
+        <f>C14*D14</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
         <v>2873</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>612</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>24</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
+      <c r="I14" s="8">
+        <v>13246746</v>
+      </c>
+      <c r="J14" s="2">
+        <f>(17500/C14)*(17500/D14)</f>
+        <v>38281250</v>
+      </c>
+      <c r="K14" s="2">
+        <f>(J14/(2+((C14+D14)/(C14*D14))))</f>
+        <v>13920454.545454545</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="0"/>
-        <v>38281250</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>1.2469618055555555E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1108,23 +6067,36 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
+        <f>C15*D15</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
         <v>5477</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>930</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>48</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
+      <c r="I15" s="8">
+        <v>7333466</v>
+      </c>
+      <c r="J15" s="2">
+        <f>(17500/C15)*(17500/D15)</f>
+        <v>19140625</v>
+      </c>
+      <c r="K15" s="2">
+        <f>(J15/(2+((C15+D15)/(C15*D15))))</f>
+        <v>7291666.666666667</v>
+      </c>
+      <c r="L15" s="11">
         <f t="shared" si="0"/>
-        <v>19140625</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>2.3771701388888889E-2</v>
+      </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1135,50 +6107,76 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
+        <f>C16*D16</f>
+        <v>32</v>
+      </c>
+      <c r="F16" s="2">
         <v>10717</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>1568</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>96</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="I16" s="8">
+        <v>4010714</v>
+      </c>
+      <c r="J16" s="2">
+        <f>(17500/C16)*(17500/D16)</f>
+        <v>9570312.5</v>
+      </c>
+      <c r="K16" s="2">
+        <f>(J16/(2+((C16+D16)/(C16*D16))))</f>
+        <v>3734756.0975609757</v>
+      </c>
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
-        <v>9570312.5</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>4.6514756944444444E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
+    <row r="17" spans="2:12" ht="15">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
+        <f>C17*D17</f>
+        <v>64</v>
+      </c>
+      <c r="F17" s="6">
         <v>21147</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="6">
         <v>2846</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="6">
         <v>192</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="I17" s="9">
+        <v>2138626</v>
+      </c>
+      <c r="J17" s="6">
+        <f>(17500/C17)*(17500/D17)</f>
+        <v>4785156.25</v>
+      </c>
+      <c r="K17" s="2">
+        <f>(J17/(2+((C17+D17)/(C17*D17))))</f>
+        <v>1890432.0987654321</v>
+      </c>
+      <c r="L17" s="11">
         <f t="shared" si="0"/>
-        <v>4785156.25</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>9.1783854166666665E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1189,23 +6187,36 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
+        <f>C18*D18</f>
+        <v>128</v>
+      </c>
+      <c r="F18" s="2">
         <v>42053</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>5404</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>384</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
+      <c r="I18" s="8">
+        <v>1103719</v>
+      </c>
+      <c r="J18" s="2">
+        <f>(17500/C18)*(17500/D18)</f>
+        <v>2392578.125</v>
+      </c>
+      <c r="K18" s="2">
+        <f>(J18/(2+((C18+D18)/(C18*D18))))</f>
+        <v>951086.95652173914</v>
+      </c>
+      <c r="L18" s="11">
         <f t="shared" si="0"/>
-        <v>2392578.125</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>0.1825217013888889</v>
+      </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1215,21 +6226,36 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
+        <f>C19*D19</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
         <v>1915</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>606</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="8">
+        <v>22520213</v>
+      </c>
+      <c r="J19" s="2">
+        <f>(17500/C19)*(17500/D19)</f>
+        <v>76562500</v>
+      </c>
+      <c r="K19" s="2">
+        <f>(J19/(2+((C19+D19)/(C19*D19))))</f>
+        <v>23557692.307692308</v>
+      </c>
+      <c r="L19" s="11">
         <f t="shared" si="0"/>
-        <v>76562500</v>
+        <v>8.3116319444444444E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1237,25 +6263,39 @@
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <f>D19*2</f>
+        <f t="shared" ref="D20:D25" si="2">D19*2</f>
         <v>2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
+        <f>C20*D20</f>
+        <v>8</v>
+      </c>
+      <c r="F20" s="2">
         <v>3235</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>714</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>24</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="8">
+        <v>11860150</v>
+      </c>
+      <c r="J20" s="2">
+        <f>(17500/C20)*(17500/D20)</f>
+        <v>38281250</v>
+      </c>
+      <c r="K20" s="2">
+        <f>(J20/(2+((C20+D20)/(C20*D20))))</f>
+        <v>13920454.545454545</v>
+      </c>
+      <c r="L20" s="11">
         <f t="shared" si="0"/>
-        <v>38281250</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>1.4040798611111112E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -1263,25 +6303,39 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D25" si="2">D20*2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
+        <f>C21*D21</f>
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
         <v>5831</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>934</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>48</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="8">
+        <v>6510215</v>
+      </c>
+      <c r="J21" s="2">
+        <f>(17500/C21)*(17500/D21)</f>
+        <v>19140625</v>
+      </c>
+      <c r="K21" s="2">
+        <f>(J21/(2+((C21+D21)/(C21*D21))))</f>
+        <v>7656250</v>
+      </c>
+      <c r="L21" s="11">
         <f t="shared" si="0"/>
-        <v>19140625</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>2.5308159722222223E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -1292,46 +6346,76 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
+        <f>C22*D22</f>
+        <v>32</v>
+      </c>
+      <c r="F22" s="2">
         <v>11043</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>1378</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>96</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="8">
+        <v>3610671</v>
+      </c>
+      <c r="J22" s="2">
+        <f>(17500/C22)*(17500/D22)</f>
+        <v>9570312.5</v>
+      </c>
+      <c r="K22" s="2">
+        <f>(J22/(2+((C22+D22)/(C22*D22))))</f>
+        <v>4029605.2631578948</v>
+      </c>
+      <c r="L22" s="11">
         <f t="shared" si="0"/>
-        <v>9570312.5</v>
+        <v>4.7929687499999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
+    <row r="23" spans="2:12" ht="15">
+      <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
+        <f>C23*D23</f>
+        <v>64</v>
+      </c>
+      <c r="F23" s="6">
         <v>21491</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="6">
         <v>2270</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="6">
         <v>192</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="9">
+        <v>1981640</v>
+      </c>
+      <c r="J23" s="6">
+        <f>(17500/C23)*(17500/D23)</f>
+        <v>4785156.25</v>
+      </c>
+      <c r="K23" s="2">
+        <f>(J23/(2+((C23+D23)/(C23*D23))))</f>
+        <v>2069256.7567567567</v>
+      </c>
+      <c r="L23" s="11">
         <f t="shared" si="0"/>
-        <v>4785156.25</v>
+        <v>9.3276909722222218E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -1342,21 +6426,36 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
+        <f>C24*D24</f>
+        <v>128</v>
+      </c>
+      <c r="F24" s="2">
         <v>42351</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>4058</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>384</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="8">
+        <v>1066634</v>
+      </c>
+      <c r="J24" s="2">
+        <f>(17500/C24)*(17500/D24)</f>
+        <v>2392578.125</v>
+      </c>
+      <c r="K24" s="2">
+        <f>(J24/(2+((C24+D24)/(C24*D24))))</f>
+        <v>1048801.3698630137</v>
+      </c>
+      <c r="L24" s="11">
         <f t="shared" si="0"/>
-        <v>2392578.125</v>
+        <v>0.18381510416666666</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -1367,21 +6466,36 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
+        <f>C25*D25</f>
+        <v>256</v>
+      </c>
+      <c r="F25" s="2">
         <v>84163</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>7638</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>768</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="8">
+        <v>549002</v>
+      </c>
+      <c r="J25" s="2">
+        <f>(17500/C25)*(17500/D25)</f>
+        <v>1196289.0625</v>
+      </c>
+      <c r="K25" s="2">
+        <f>(J25/(2+((C25+D25)/(C25*D25))))</f>
+        <v>528017.24137931038</v>
+      </c>
+      <c r="L25" s="11">
         <f t="shared" si="0"/>
-        <v>1196289.0625</v>
+        <v>0.36529079861111113</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -1391,21 +6505,36 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
+        <f>C26*D26</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="2">
         <v>4133</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>1066</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>24</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="8">
+        <v>10658337</v>
+      </c>
+      <c r="J26" s="2">
+        <f>(17500/C26)*(17500/D26)</f>
+        <v>38281250</v>
+      </c>
+      <c r="K26" s="2">
+        <f>(J26/(2+((C26+D26)/(C26*D26))))</f>
+        <v>12250000</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="0"/>
-        <v>38281250</v>
+        <v>1.7938368055555556E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -1413,24 +6542,39 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <f>D26*2</f>
+        <f t="shared" ref="D27:D32" si="3">D26*2</f>
         <v>2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
+        <f>C27*D27</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
         <v>6748</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>1234</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>48</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="8">
+        <v>5646970</v>
+      </c>
+      <c r="J27" s="2">
+        <f>(17500/C27)*(17500/D27)</f>
+        <v>19140625</v>
+      </c>
+      <c r="K27" s="2">
+        <f>(J27/(2+((C27+D27)/(C27*D27))))</f>
+        <v>7291666.666666667</v>
+      </c>
+      <c r="L27" s="11">
         <f t="shared" si="0"/>
-        <v>19140625</v>
+        <v>2.9288194444444443E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1438,49 +6582,79 @@
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:D31" si="3">D27*2</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
+        <f>C28*D28</f>
+        <v>32</v>
+      </c>
+      <c r="F28" s="2">
         <v>11927</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>1578</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>96</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="8">
+        <v>3114813</v>
+      </c>
+      <c r="J28" s="2">
+        <f>(17500/C28)*(17500/D28)</f>
+        <v>9570312.5</v>
+      </c>
+      <c r="K28" s="2">
+        <f>(J28/(2+((C28+D28)/(C28*D28))))</f>
+        <v>4029605.2631578948</v>
+      </c>
+      <c r="L28" s="11">
         <f t="shared" si="0"/>
-        <v>9570312.5</v>
+        <v>5.1766493055555557E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
+    <row r="29" spans="2:12" ht="15">
+      <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="6">
+        <f>C29*D29</f>
+        <v>64</v>
+      </c>
+      <c r="F29" s="6">
         <v>22351</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="6">
         <v>2274</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="6">
         <v>192</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="9">
+        <v>1769295</v>
+      </c>
+      <c r="J29" s="6">
+        <f>(17500/C29)*(17500/D29)</f>
+        <v>4785156.25</v>
+      </c>
+      <c r="K29" s="2">
+        <f>(J29/(2+((C29+D29)/(C29*D29))))</f>
+        <v>2126736.111111111</v>
+      </c>
+      <c r="L29" s="11">
         <f t="shared" si="0"/>
-        <v>4785156.25</v>
+        <v>9.7009548611111107E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1491,21 +6665,36 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
+        <f>C30*D30</f>
+        <v>128</v>
+      </c>
+      <c r="F30" s="2">
         <v>43247</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>3674</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>384</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="8">
+        <v>982576</v>
+      </c>
+      <c r="J30" s="2">
+        <f>(17500/C30)*(17500/D30)</f>
+        <v>2392578.125</v>
+      </c>
+      <c r="K30" s="2">
+        <f>(J30/(2+((C30+D30)/(C30*D30))))</f>
+        <v>1093750</v>
+      </c>
+      <c r="L30" s="11">
         <f t="shared" si="0"/>
-        <v>2392578.125</v>
+        <v>0.18770399305555555</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1516,21 +6705,36 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
+        <f>C31*D31</f>
+        <v>256</v>
+      </c>
+      <c r="F31" s="2">
         <v>84967</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>6482</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>768</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="8">
+        <v>528546</v>
+      </c>
+      <c r="J31" s="2">
+        <f>(17500/C31)*(17500/D31)</f>
+        <v>1196289.0625</v>
+      </c>
+      <c r="K31" s="2">
+        <f>(J31/(2+((C31+D31)/(C31*D31))))</f>
+        <v>554800.72463768115</v>
+      </c>
+      <c r="L31" s="11">
         <f t="shared" si="0"/>
-        <v>1196289.0625</v>
+        <v>0.36878038194444446</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>49</v>
       </c>
@@ -1538,24 +6742,39 @@
         <v>8</v>
       </c>
       <c r="D32" s="2">
-        <f>D31*2</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
+        <f>C32*D32</f>
+        <v>512</v>
+      </c>
+      <c r="F32" s="2">
         <v>168591</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>12106</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>1536</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="8">
+        <v>273279</v>
+      </c>
+      <c r="J32" s="2">
+        <f>(17500/C32)*(17500/D32)</f>
+        <v>598144.53125</v>
+      </c>
+      <c r="K32" s="2">
+        <f>(J32/(2+((C32+D32)/(C32*D32))))</f>
+        <v>279425.18248175184</v>
+      </c>
+      <c r="L32" s="11">
         <f t="shared" si="0"/>
-        <v>598144.53125</v>
+        <v>0.73173177083333329</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
         <v>50</v>
       </c>
@@ -1565,12 +6784,36 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="E33">
+        <f>C33*D33</f>
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10134</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1986</v>
+      </c>
+      <c r="H33">
+        <v>48</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4829953</v>
+      </c>
+      <c r="J33" s="2">
+        <f>(17500/C33)*(17500/D33)</f>
+        <v>19140625</v>
+      </c>
+      <c r="K33" s="2">
+        <f>(J33/(2+((C33+D33)/(C33*D33))))</f>
+        <v>6250000</v>
+      </c>
+      <c r="L33" s="11">
         <f t="shared" si="0"/>
-        <v>19140625</v>
+        <v>4.3984374999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
         <v>51</v>
       </c>
@@ -1578,31 +6821,79 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <f>D33*2</f>
+        <f t="shared" ref="D34:D39" si="4">D33*2</f>
         <v>2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="E34">
+        <f>C34*D34</f>
+        <v>32</v>
+      </c>
+      <c r="F34" s="2">
+        <v>15255</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2274</v>
+      </c>
+      <c r="H34">
+        <v>96</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2554960</v>
+      </c>
+      <c r="J34" s="2">
+        <f>(17500/C34)*(17500/D34)</f>
+        <v>9570312.5</v>
+      </c>
+      <c r="K34" s="2">
+        <f>(J34/(2+((C34+D34)/(C34*D34))))</f>
+        <v>3734756.0975609757</v>
+      </c>
+      <c r="L34" s="11">
         <f t="shared" si="0"/>
-        <v>9570312.5</v>
+        <v>6.6210937499999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
+    <row r="35" spans="2:12" ht="15">
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>16</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:D39" si="4">D34*2</f>
+      <c r="D35" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I35" s="2">
+      <c r="E35" s="6">
+        <f>C35*D35</f>
+        <v>64</v>
+      </c>
+      <c r="F35" s="6">
+        <v>25639</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2866</v>
+      </c>
+      <c r="H35" s="6">
+        <v>192</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1399808</v>
+      </c>
+      <c r="J35" s="6">
+        <f>(17500/C35)*(17500/D35)</f>
+        <v>4785156.25</v>
+      </c>
+      <c r="K35" s="2">
+        <f>(J35/(2+((C35+D35)/(C35*D35))))</f>
+        <v>2069256.7567567567</v>
+      </c>
+      <c r="L35" s="11">
         <f t="shared" si="0"/>
-        <v>4785156.25</v>
+        <v>0.11128038194444445</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
         <v>53</v>
       </c>
@@ -1613,12 +6904,36 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="0"/>
+      <c r="E36">
+        <f>C36*D36</f>
+        <v>128</v>
+      </c>
+      <c r="F36" s="2">
+        <v>46487</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4066</v>
+      </c>
+      <c r="H36">
+        <v>384</v>
+      </c>
+      <c r="I36" s="8">
+        <v>839810</v>
+      </c>
+      <c r="J36" s="2">
+        <f>(17500/C36)*(17500/D36)</f>
         <v>2392578.125</v>
       </c>
+      <c r="K36" s="2">
+        <f>(J36/(2+((C36+D36)/(C36*D36))))</f>
+        <v>1093750</v>
+      </c>
+      <c r="L36" s="11">
+        <f>(F36/230400)</f>
+        <v>0.20176649305555555</v>
+      </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>54</v>
       </c>
@@ -1629,12 +6944,36 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="0"/>
+      <c r="E37">
+        <f>C37*D37</f>
+        <v>256</v>
+      </c>
+      <c r="F37" s="2">
+        <v>88279</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6482</v>
+      </c>
+      <c r="H37">
+        <v>768</v>
+      </c>
+      <c r="I37" s="8">
+        <v>478134</v>
+      </c>
+      <c r="J37" s="2">
+        <f>(17500/C37)*(17500/D37)</f>
         <v>1196289.0625</v>
       </c>
+      <c r="K37" s="2">
+        <f>(J37/(2+((C37+D37)/(C37*D37))))</f>
+        <v>562959.5588235294</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" ref="L37:L53" si="5">(F37/230400)</f>
+        <v>0.38315538194444443</v>
+      </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
         <v>55</v>
       </c>
@@ -1645,12 +6984,36 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="0"/>
+      <c r="E38">
+        <f>C38*D38</f>
+        <v>512</v>
+      </c>
+      <c r="F38" s="2">
+        <v>171734</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11330</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1536</v>
+      </c>
+      <c r="I38" s="8">
+        <v>259908</v>
+      </c>
+      <c r="J38" s="2">
+        <f>(17500/C38)*(17500/D38)</f>
         <v>598144.53125</v>
       </c>
+      <c r="K38" s="2">
+        <f>(J38/(2+((C38+D38)/(C38*D38))))</f>
+        <v>285680.97014925373</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="5"/>
+        <v>0.74537326388888892</v>
+      </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>56</v>
       </c>
@@ -1661,12 +7024,36 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="I39" s="2">
-        <f t="shared" si="0"/>
+      <c r="E39">
+        <f>C39*D39</f>
+        <v>1024</v>
+      </c>
+      <c r="F39" s="2">
+        <v>789862</v>
+      </c>
+      <c r="G39" s="2">
+        <v>36402</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1728</v>
+      </c>
+      <c r="I39" s="8">
+        <v>134313</v>
+      </c>
+      <c r="J39" s="2">
+        <f>(17500/C39)*(17500/D39)</f>
         <v>299072.265625</v>
       </c>
+      <c r="K39" s="2">
+        <f>(J39/(2+((C39+D39)/(C39*D39))))</f>
+        <v>143914.47368421053</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="5"/>
+        <v>3.428220486111111</v>
+      </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>57</v>
       </c>
@@ -1676,28 +7063,76 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="I40" s="2">
-        <f t="shared" si="0"/>
+      <c r="E40">
+        <f>C40*D40</f>
+        <v>32</v>
+      </c>
+      <c r="F40" s="2">
+        <v>24798</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3826</v>
+      </c>
+      <c r="H40">
+        <v>96</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2187415</v>
+      </c>
+      <c r="J40" s="2">
+        <f>(17500/C40)*(17500/D40)</f>
         <v>9570312.5</v>
       </c>
+      <c r="K40" s="2">
+        <f>(J40/(2+((C40+D40)/(C40*D40))))</f>
+        <v>3157216.494845361</v>
+      </c>
+      <c r="L40" s="11">
+        <f>(F40/230400)</f>
+        <v>0.10763020833333334</v>
+      </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
+    <row r="41" spans="2:12" ht="15">
+      <c r="B41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="6">
         <v>32</v>
       </c>
-      <c r="D41" s="2">
-        <f>D40*2</f>
+      <c r="D41" s="6">
+        <f t="shared" ref="D41:D46" si="6">D40*2</f>
         <v>2</v>
       </c>
-      <c r="I41" s="2">
-        <f t="shared" si="0"/>
+      <c r="E41" s="6">
+        <f>C41*D41</f>
+        <v>64</v>
+      </c>
+      <c r="F41" s="6">
+        <v>36112</v>
+      </c>
+      <c r="G41" s="6">
+        <v>4354</v>
+      </c>
+      <c r="H41" s="6">
+        <v>192</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1111228</v>
+      </c>
+      <c r="J41" s="6">
+        <f>(17500/C41)*(17500/D41)</f>
         <v>4785156.25</v>
       </c>
+      <c r="K41" s="2">
+        <f>(J41/(2+((C41+D41)/(C41*D41))))</f>
+        <v>1890432.0987654321</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="5"/>
+        <v>0.1567361111111111</v>
+      </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -1705,15 +7140,39 @@
         <v>32</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" ref="D42:D45" si="5">D41*2</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="0"/>
+      <c r="E42">
+        <f>C42*D42</f>
+        <v>128</v>
+      </c>
+      <c r="F42" s="2">
+        <v>55888</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5442</v>
+      </c>
+      <c r="H42">
+        <v>384</v>
+      </c>
+      <c r="I42" s="8">
+        <v>611737</v>
+      </c>
+      <c r="J42" s="2">
+        <f>(17500/C42)*(17500/D42)</f>
         <v>2392578.125</v>
       </c>
+      <c r="K42" s="2">
+        <f>(J42/(2+((C42+D42)/(C42*D42))))</f>
+        <v>1048801.3698630137</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24256944444444445</v>
+      </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>60</v>
       </c>
@@ -1721,15 +7180,39 @@
         <v>32</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <f>C43*D43</f>
+        <v>256</v>
+      </c>
+      <c r="F43" s="2">
+        <v>98886</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7650</v>
+      </c>
+      <c r="H43">
+        <v>768</v>
+      </c>
+      <c r="I43" s="8">
+        <v>356298</v>
+      </c>
+      <c r="J43" s="2">
+        <f>(17500/C43)*(17500/D43)</f>
+        <v>1196289.0625</v>
+      </c>
+      <c r="K43" s="2">
+        <f>(J43/(2+((C43+D43)/(C43*D43))))</f>
+        <v>554800.72463768115</v>
+      </c>
+      <c r="L43" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="0"/>
-        <v>1196289.0625</v>
+        <v>0.42919270833333334</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -1737,15 +7220,39 @@
         <v>32</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <f>C44*D44</f>
+        <v>512</v>
+      </c>
+      <c r="F44" s="2">
+        <v>182750</v>
+      </c>
+      <c r="G44" s="2">
+        <v>12098</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1536</v>
+      </c>
+      <c r="I44" s="8">
+        <v>226255</v>
+      </c>
+      <c r="J44" s="2">
+        <f>(17500/C44)*(17500/D44)</f>
+        <v>598144.53125</v>
+      </c>
+      <c r="K44" s="2">
+        <f>(J44/(2+((C44+D44)/(C44*D44))))</f>
+        <v>285680.97014925373</v>
+      </c>
+      <c r="L44" s="11">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="0"/>
-        <v>598144.53125</v>
+        <v>0.79318576388888884</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:12">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -1753,15 +7260,39 @@
         <v>32</v>
       </c>
       <c r="D45" s="2">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <f>C45*D45</f>
+        <v>1024</v>
+      </c>
+      <c r="F45" s="2">
+        <v>798905</v>
+      </c>
+      <c r="G45" s="2">
+        <v>35362</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1728</v>
+      </c>
+      <c r="I45" s="8">
+        <v>128818</v>
+      </c>
+      <c r="J45" s="2">
+        <f>(17500/C45)*(17500/D45)</f>
+        <v>299072.265625</v>
+      </c>
+      <c r="K45" s="2">
+        <f>(J45/(2+((C45+D45)/(C45*D45))))</f>
+        <v>145004.73484848486</v>
+      </c>
+      <c r="L45" s="11">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="0"/>
-        <v>299072.265625</v>
+        <v>3.4674696180555555</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
         <v>63</v>
       </c>
@@ -1769,30 +7300,78 @@
         <v>32</v>
       </c>
       <c r="D46" s="2">
-        <f>D45*2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="I46" s="2">
-        <f t="shared" si="0"/>
+      <c r="E46">
+        <f>C46*D46</f>
+        <v>2048</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2160507</v>
+      </c>
+      <c r="G46" s="2">
+        <v>88066</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1728</v>
+      </c>
+      <c r="I46" s="8">
+        <v>66315</v>
+      </c>
+      <c r="J46" s="2">
+        <f>(17500/C46)*(17500/D46)</f>
         <v>149536.1328125</v>
       </c>
+      <c r="K46" s="2">
+        <f>(J46/(2+((C46+D46)/(C46*D46))))</f>
+        <v>73055.82061068702</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="5"/>
+        <v>9.377200520833334</v>
+      </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" t="s">
+    <row r="47" spans="2:12" ht="15">
+      <c r="B47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>64</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="0"/>
+      <c r="E47" s="6">
+        <f>C47*D47</f>
+        <v>64</v>
+      </c>
+      <c r="F47" s="6">
+        <v>73294</v>
+      </c>
+      <c r="G47" s="6">
+        <v>7507</v>
+      </c>
+      <c r="H47" s="6">
+        <v>192</v>
+      </c>
+      <c r="I47" s="9">
+        <v>979202</v>
+      </c>
+      <c r="J47" s="6">
+        <f>(17500/C47)*(17500/D47)</f>
         <v>4785156.25</v>
       </c>
+      <c r="K47" s="2">
+        <f>(J47/(2+((C47+D47)/(C47*D47))))</f>
+        <v>1586787.5647668394</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="5"/>
+        <v>0.31811631944444446</v>
+      </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -1800,15 +7379,39 @@
         <v>64</v>
       </c>
       <c r="D48" s="2">
-        <f>D47*2</f>
+        <f t="shared" ref="D48:D53" si="7">D47*2</f>
         <v>2</v>
       </c>
-      <c r="I48" s="2">
-        <f t="shared" si="0"/>
+      <c r="E48">
+        <f>C48*D48</f>
+        <v>128</v>
+      </c>
+      <c r="F48" s="2">
+        <v>98823</v>
+      </c>
+      <c r="G48" s="2">
+        <v>8515</v>
+      </c>
+      <c r="H48">
+        <v>384</v>
+      </c>
+      <c r="I48" s="8">
+        <v>498352</v>
+      </c>
+      <c r="J48" s="2">
+        <f>(17500/C48)*(17500/D48)</f>
         <v>2392578.125</v>
       </c>
+      <c r="K48" s="2">
+        <f>(J48/(2+((C48+D48)/(C48*D48))))</f>
+        <v>951086.95652173914</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="5"/>
+        <v>0.42891927083333331</v>
+      </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:12">
       <c r="B49" t="s">
         <v>66</v>
       </c>
@@ -1816,15 +7419,39 @@
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ref="D49:D53" si="6">D48*2</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I49" s="2">
-        <f t="shared" si="0"/>
+      <c r="E49">
+        <f>C49*D49</f>
+        <v>256</v>
+      </c>
+      <c r="F49" s="2">
+        <v>142212</v>
+      </c>
+      <c r="G49" s="2">
+        <v>10595</v>
+      </c>
+      <c r="H49">
+        <v>768</v>
+      </c>
+      <c r="I49" s="8">
+        <v>249357</v>
+      </c>
+      <c r="J49" s="2">
+        <f>(17500/C49)*(17500/D49)</f>
         <v>1196289.0625</v>
       </c>
+      <c r="K49" s="2">
+        <f>(J49/(2+((C49+D49)/(C49*D49))))</f>
+        <v>528017.24137931038</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="5"/>
+        <v>0.61723958333333329</v>
+      </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
         <v>67</v>
       </c>
@@ -1832,15 +7459,39 @@
         <v>64</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I50" s="2">
-        <f t="shared" si="0"/>
+      <c r="E50">
+        <f>C50*D50</f>
+        <v>512</v>
+      </c>
+      <c r="F50" s="2">
+        <v>222967</v>
+      </c>
+      <c r="G50" s="2">
+        <v>14820</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1536</v>
+      </c>
+      <c r="I50" s="8">
+        <v>144148</v>
+      </c>
+      <c r="J50" s="2">
+        <f>(17500/C50)*(17500/D50)</f>
         <v>598144.53125</v>
       </c>
+      <c r="K50" s="2">
+        <f>(J50/(2+((C50+D50)/(C50*D50))))</f>
+        <v>279425.18248175184</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="5"/>
+        <v>0.96773871527777777</v>
+      </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -1848,15 +7499,39 @@
         <v>64</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I51" s="2">
-        <f t="shared" si="0"/>
+      <c r="E51">
+        <f>C51*D51</f>
+        <v>1024</v>
+      </c>
+      <c r="F51" s="2">
+        <v>838728</v>
+      </c>
+      <c r="G51" s="2">
+        <v>37667</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1728</v>
+      </c>
+      <c r="I51" s="8">
+        <v>94999</v>
+      </c>
+      <c r="J51" s="2">
+        <f>(17500/C51)*(17500/D51)</f>
         <v>299072.265625</v>
       </c>
+      <c r="K51" s="2">
+        <f>(J51/(2+((C51+D51)/(C51*D51))))</f>
+        <v>143914.47368421053</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6403124999999998</v>
+      </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -1864,15 +7539,39 @@
         <v>64</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="I52" s="2">
-        <f t="shared" si="0"/>
+      <c r="E52">
+        <f>C52*D52</f>
+        <v>2048</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2199738</v>
+      </c>
+      <c r="G52" s="2">
+        <v>87523</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1728</v>
+      </c>
+      <c r="I52" s="8">
+        <v>60066</v>
+      </c>
+      <c r="J52" s="2">
+        <f>(17500/C52)*(17500/D52)</f>
         <v>149536.1328125</v>
       </c>
+      <c r="K52" s="2">
+        <f>(J52/(2+((C52+D52)/(C52*D52))))</f>
+        <v>73055.82061068702</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="5"/>
+        <v>9.5474739583333328</v>
+      </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -1880,27 +7579,47 @@
         <v>64</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" si="0"/>
+      <c r="E53">
+        <f>C53*D53</f>
+        <v>4096</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="8">
+        <v>32220</v>
+      </c>
+      <c r="J53" s="2">
+        <f>(17500/C53)*(17500/D53)</f>
         <v>74768.06640625</v>
       </c>
+      <c r="K53" s="2">
+        <f>(J53/(2+((C53+D53)/(C53*D53))))</f>
+        <v>36808.894230769234</v>
+      </c>
+      <c r="L53" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1908,7 +7627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>

--- a/results_excell.xlsx
+++ b/results_excell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ror_files_v2\ror_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF09138-D84E-4830-86BB-6F230BB54B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778765C-EDC1-4051-9634-E994CBEA5830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>Point cloud size</t>
   </si>
@@ -259,11 +259,18 @@
   <si>
     <t>%Utilization</t>
   </si>
+  <si>
+    <t>Cycles per Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -480,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +502,8 @@
     <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="40% - Cor4" xfId="20" builtinId="43"/>
@@ -5601,10 +5610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L54"/>
+  <dimension ref="B1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI57" sqref="AI57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5619,9 +5628,10 @@
     <col min="10" max="10" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5629,10 +5639,10 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:15">
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:15">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -5663,8 +5673,11 @@
       <c r="L4" t="s">
         <v>74</v>
       </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>C5*D5</f>
+        <f t="shared" ref="E5:E36" si="0">C5*D5</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -5691,19 +5704,23 @@
         <v>94265383</v>
       </c>
       <c r="J5" s="2">
-        <f>(17500/C5)*(17500/D5)</f>
+        <f t="shared" ref="J5:J36" si="1">(17500/C5)*(17500/D5)</f>
         <v>306250000</v>
       </c>
       <c r="K5" s="2">
-        <f>(J5/(2+((C5*D5)/(C5+D5))))</f>
+        <f t="shared" ref="K5:K11" si="2">(J5/(2+((C5*D5)/(C5+D5))))</f>
         <v>122500000</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" ref="L5:L35" si="0">(F5/230400)</f>
+        <f>(F5/230400)</f>
         <v>2.0225694444444445E-3</v>
       </c>
+      <c r="M5" s="12">
+        <f>I5/17500</f>
+        <v>5386.5933142857139</v>
+      </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F6">
@@ -5730,19 +5747,23 @@
         <v>49425245</v>
       </c>
       <c r="J6" s="2">
-        <f>(17500/C6)*(17500/D6)</f>
+        <f t="shared" si="1"/>
         <v>153125000</v>
       </c>
       <c r="K6" s="2">
-        <f>(J6/(2+((C6*D6)/(C6+D6))))</f>
+        <f t="shared" si="2"/>
         <v>57421875</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L6:L35" si="3">(F6/230400)</f>
         <v>3.5243055555555557E-3</v>
       </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M53" si="4">I6/17500</f>
+        <v>2824.2997142857143</v>
+      </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -5753,7 +5774,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F7" s="2">
@@ -5769,19 +5790,23 @@
         <v>26747004</v>
       </c>
       <c r="J7" s="2">
-        <f>(17500/C7)*(17500/D7)</f>
+        <f t="shared" si="1"/>
         <v>76562500</v>
       </c>
       <c r="K7" s="2">
-        <f>(J7/(2+((C7*D7)/(C7+D7))))</f>
+        <f t="shared" si="2"/>
         <v>27343750</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2760416666666667E-3</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>1528.4002285714287</v>
+      </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F8" s="2">
@@ -5808,19 +5833,23 @@
         <v>14774511</v>
       </c>
       <c r="J8" s="2">
-        <f>(17500/C8)*(17500/D8)</f>
+        <f t="shared" si="1"/>
         <v>38281250</v>
       </c>
       <c r="K8" s="2">
-        <f>(J8/(2+((C8*D8)/(C8+D8))))</f>
+        <f t="shared" si="2"/>
         <v>13251201.923076924</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1905381944444444E-2</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>844.25777142857146</v>
+      </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5831,7 +5860,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F9" s="2">
@@ -5847,19 +5876,23 @@
         <v>8082390</v>
       </c>
       <c r="J9" s="2">
-        <f>(17500/C9)*(17500/D9)</f>
+        <f t="shared" si="1"/>
         <v>19140625</v>
       </c>
       <c r="K9" s="2">
-        <f>(J9/(2+((C9*D9)/(C9+D9))))</f>
+        <f t="shared" si="2"/>
         <v>6507812.5</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3250868055555554E-2</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>461.85085714285714</v>
+      </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -5870,7 +5903,7 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F10" s="2">
@@ -5886,19 +5919,23 @@
         <v>4304508</v>
       </c>
       <c r="J10" s="2">
-        <f>(17500/C10)*(17500/D10)</f>
+        <f t="shared" si="1"/>
         <v>9570312.5</v>
       </c>
       <c r="K10" s="2">
-        <f>(J10/(2+((C10*D10)/(C10+D10))))</f>
+        <f t="shared" si="2"/>
         <v>3222656.25</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5885416666666665E-2</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>245.97188571428572</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" ht="15">
+    <row r="11" spans="2:15" ht="15">
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -5909,7 +5946,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="6">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F11" s="6">
@@ -5925,19 +5962,23 @@
         <v>2216731</v>
       </c>
       <c r="J11" s="6">
-        <f>(17500/C11)*(17500/D11)</f>
+        <f t="shared" si="1"/>
         <v>4785156.25</v>
       </c>
       <c r="K11" s="2">
-        <f>(J11/(2+((C11*D11)/(C11+D11))))</f>
+        <f t="shared" si="2"/>
         <v>1603274.0012886599</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.1254340277777776E-2</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>126.67034285714286</v>
+      </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12">
@@ -5964,19 +6005,23 @@
         <v>46426773</v>
       </c>
       <c r="J12" s="2">
-        <f>(17500/C12)*(17500/D12)</f>
+        <f t="shared" si="1"/>
         <v>153125000</v>
       </c>
       <c r="K12" s="2">
-        <f>(J12/(2+((C12+D12)/(C12*D12))))</f>
+        <f t="shared" ref="K12:K53" si="5">(J12/(2+((C12+D12)/(C12*D12))))</f>
         <v>43750000</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9887152777777777E-3</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>2652.9584571428572</v>
+      </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -5984,11 +6029,11 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D18" si="1">D12*2</f>
+        <f t="shared" ref="D13:D18" si="6">D12*2</f>
         <v>2</v>
       </c>
       <c r="E13">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F13" s="2">
@@ -6004,19 +6049,23 @@
         <v>24431779</v>
       </c>
       <c r="J13" s="2">
-        <f>(17500/C13)*(17500/D13)</f>
+        <f t="shared" si="1"/>
         <v>76562500</v>
       </c>
       <c r="K13" s="2">
-        <f>(J13/(2+((C13+D13)/(C13*D13))))</f>
+        <f t="shared" si="5"/>
         <v>25520833.333333332</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8185763888888888E-3</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1396.1016571428572</v>
+      </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -6024,11 +6073,11 @@
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E14">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F14" s="2">
@@ -6044,19 +6093,23 @@
         <v>13246746</v>
       </c>
       <c r="J14" s="2">
-        <f>(17500/C14)*(17500/D14)</f>
+        <f t="shared" si="1"/>
         <v>38281250</v>
       </c>
       <c r="K14" s="2">
-        <f>(J14/(2+((C14+D14)/(C14*D14))))</f>
+        <f t="shared" si="5"/>
         <v>13920454.545454545</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2469618055555555E-2</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>756.95691428571433</v>
+      </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -6064,11 +6117,11 @@
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E15">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F15" s="2">
@@ -6084,19 +6137,23 @@
         <v>7333466</v>
       </c>
       <c r="J15" s="2">
-        <f>(17500/C15)*(17500/D15)</f>
+        <f t="shared" si="1"/>
         <v>19140625</v>
       </c>
       <c r="K15" s="2">
-        <f>(J15/(2+((C15+D15)/(C15*D15))))</f>
+        <f t="shared" si="5"/>
         <v>7291666.666666667</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3771701388888889E-2</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>419.05520000000001</v>
+      </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -6104,11 +6161,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E16">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F16" s="2">
@@ -6124,19 +6181,24 @@
         <v>4010714</v>
       </c>
       <c r="J16" s="2">
-        <f>(17500/C16)*(17500/D16)</f>
+        <f t="shared" si="1"/>
         <v>9570312.5</v>
       </c>
       <c r="K16" s="2">
-        <f>(J16/(2+((C16+D16)/(C16*D16))))</f>
+        <f t="shared" si="5"/>
         <v>3734756.0975609757</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6514756944444444E-2</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>229.18365714285713</v>
+      </c>
+      <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:13" ht="15">
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
@@ -6144,11 +6206,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="E17" s="6">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F17" s="6">
@@ -6164,19 +6226,23 @@
         <v>2138626</v>
       </c>
       <c r="J17" s="6">
-        <f>(17500/C17)*(17500/D17)</f>
+        <f t="shared" si="1"/>
         <v>4785156.25</v>
       </c>
       <c r="K17" s="2">
-        <f>(J17/(2+((C17+D17)/(C17*D17))))</f>
+        <f t="shared" si="5"/>
         <v>1890432.0987654321</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.1783854166666665E-2</v>
       </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>122.2072</v>
+      </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -6184,11 +6250,11 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="E18">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="F18" s="2">
@@ -6204,19 +6270,23 @@
         <v>1103719</v>
       </c>
       <c r="J18" s="2">
-        <f>(17500/C18)*(17500/D18)</f>
+        <f t="shared" si="1"/>
         <v>2392578.125</v>
       </c>
       <c r="K18" s="2">
-        <f>(J18/(2+((C18+D18)/(C18*D18))))</f>
+        <f t="shared" si="5"/>
         <v>951086.95652173914</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.1825217013888889</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>63.069657142857146</v>
+      </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -6227,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F19" s="2">
@@ -6243,19 +6313,23 @@
         <v>22520213</v>
       </c>
       <c r="J19" s="2">
-        <f>(17500/C19)*(17500/D19)</f>
+        <f t="shared" si="1"/>
         <v>76562500</v>
       </c>
       <c r="K19" s="2">
-        <f>(J19/(2+((C19+D19)/(C19*D19))))</f>
+        <f t="shared" si="5"/>
         <v>23557692.307692308</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3116319444444444E-3</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>1286.8693142857144</v>
+      </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -6263,11 +6337,11 @@
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D25" si="2">D19*2</f>
+        <f t="shared" ref="D20:D25" si="7">D19*2</f>
         <v>2</v>
       </c>
       <c r="E20">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F20" s="2">
@@ -6283,19 +6357,23 @@
         <v>11860150</v>
       </c>
       <c r="J20" s="2">
-        <f>(17500/C20)*(17500/D20)</f>
+        <f t="shared" si="1"/>
         <v>38281250</v>
       </c>
       <c r="K20" s="2">
-        <f>(J20/(2+((C20+D20)/(C20*D20))))</f>
+        <f t="shared" si="5"/>
         <v>13920454.545454545</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4040798611111112E-2</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>677.72285714285715</v>
+      </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -6303,11 +6381,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E21">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F21" s="2">
@@ -6323,19 +6401,23 @@
         <v>6510215</v>
       </c>
       <c r="J21" s="2">
-        <f>(17500/C21)*(17500/D21)</f>
+        <f t="shared" si="1"/>
         <v>19140625</v>
       </c>
       <c r="K21" s="2">
-        <f>(J21/(2+((C21+D21)/(C21*D21))))</f>
+        <f t="shared" si="5"/>
         <v>7656250</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5308159722222223E-2</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>372.01228571428572</v>
+      </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -6343,11 +6425,11 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="E22">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F22" s="2">
@@ -6363,19 +6445,23 @@
         <v>3610671</v>
       </c>
       <c r="J22" s="2">
-        <f>(17500/C22)*(17500/D22)</f>
+        <f t="shared" si="1"/>
         <v>9570312.5</v>
       </c>
       <c r="K22" s="2">
-        <f>(J22/(2+((C22+D22)/(C22*D22))))</f>
+        <f t="shared" si="5"/>
         <v>4029605.2631578948</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7929687499999998E-2</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>206.32405714285716</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:13" ht="15">
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
@@ -6383,11 +6469,11 @@
         <v>4</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E23" s="6">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F23" s="6">
@@ -6403,19 +6489,23 @@
         <v>1981640</v>
       </c>
       <c r="J23" s="6">
-        <f>(17500/C23)*(17500/D23)</f>
+        <f t="shared" si="1"/>
         <v>4785156.25</v>
       </c>
       <c r="K23" s="2">
-        <f>(J23/(2+((C23+D23)/(C23*D23))))</f>
+        <f t="shared" si="5"/>
         <v>2069256.7567567567</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3276909722222218E-2</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>113.23657142857142</v>
+      </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -6423,11 +6513,11 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="E24">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="F24" s="2">
@@ -6443,19 +6533,23 @@
         <v>1066634</v>
       </c>
       <c r="J24" s="2">
-        <f>(17500/C24)*(17500/D24)</f>
+        <f t="shared" si="1"/>
         <v>2392578.125</v>
       </c>
       <c r="K24" s="2">
-        <f>(J24/(2+((C24+D24)/(C24*D24))))</f>
+        <f t="shared" si="5"/>
         <v>1048801.3698630137</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18381510416666666</v>
       </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>60.950514285714284</v>
+      </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -6463,11 +6557,11 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="E25">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F25" s="2">
@@ -6483,19 +6577,23 @@
         <v>549002</v>
       </c>
       <c r="J25" s="2">
-        <f>(17500/C25)*(17500/D25)</f>
+        <f t="shared" si="1"/>
         <v>1196289.0625</v>
       </c>
       <c r="K25" s="2">
-        <f>(J25/(2+((C25+D25)/(C25*D25))))</f>
+        <f t="shared" si="5"/>
         <v>528017.24137931038</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.36529079861111113</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>31.371542857142856</v>
+      </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -6506,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F26" s="2">
@@ -6522,19 +6620,23 @@
         <v>10658337</v>
       </c>
       <c r="J26" s="2">
-        <f>(17500/C26)*(17500/D26)</f>
+        <f t="shared" si="1"/>
         <v>38281250</v>
       </c>
       <c r="K26" s="2">
-        <f>(J26/(2+((C26+D26)/(C26*D26))))</f>
+        <f t="shared" si="5"/>
         <v>12250000</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7938368055555556E-2</v>
       </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>609.04782857142857</v>
+      </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -6542,11 +6644,11 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D32" si="3">D26*2</f>
+        <f t="shared" ref="D27:D32" si="8">D26*2</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F27" s="2">
@@ -6562,19 +6664,23 @@
         <v>5646970</v>
       </c>
       <c r="J27" s="2">
-        <f>(17500/C27)*(17500/D27)</f>
+        <f t="shared" si="1"/>
         <v>19140625</v>
       </c>
       <c r="K27" s="2">
-        <f>(J27/(2+((C27+D27)/(C27*D27))))</f>
+        <f t="shared" si="5"/>
         <v>7291666.666666667</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9288194444444443E-2</v>
       </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>322.68400000000003</v>
+      </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -6582,11 +6688,11 @@
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E28">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F28" s="2">
@@ -6602,19 +6708,23 @@
         <v>3114813</v>
       </c>
       <c r="J28" s="2">
-        <f>(17500/C28)*(17500/D28)</f>
+        <f t="shared" si="1"/>
         <v>9570312.5</v>
       </c>
       <c r="K28" s="2">
-        <f>(J28/(2+((C28+D28)/(C28*D28))))</f>
+        <f t="shared" si="5"/>
         <v>4029605.2631578948</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.1766493055555557E-2</v>
       </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>177.98931428571427</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:13" ht="15">
       <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
@@ -6622,11 +6732,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E29" s="6">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F29" s="6">
@@ -6642,19 +6752,23 @@
         <v>1769295</v>
       </c>
       <c r="J29" s="6">
-        <f>(17500/C29)*(17500/D29)</f>
+        <f t="shared" si="1"/>
         <v>4785156.25</v>
       </c>
       <c r="K29" s="2">
-        <f>(J29/(2+((C29+D29)/(C29*D29))))</f>
+        <f t="shared" si="5"/>
         <v>2126736.111111111</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.7009548611111107E-2</v>
       </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>101.10257142857142</v>
+      </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -6662,11 +6776,11 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="E30">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="F30" s="2">
@@ -6682,19 +6796,23 @@
         <v>982576</v>
       </c>
       <c r="J30" s="2">
-        <f>(17500/C30)*(17500/D30)</f>
+        <f t="shared" si="1"/>
         <v>2392578.125</v>
       </c>
       <c r="K30" s="2">
-        <f>(J30/(2+((C30+D30)/(C30*D30))))</f>
+        <f t="shared" si="5"/>
         <v>1093750</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18770399305555555</v>
       </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>56.147199999999998</v>
+      </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -6702,11 +6820,11 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="E31">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F31" s="2">
@@ -6722,19 +6840,23 @@
         <v>528546</v>
       </c>
       <c r="J31" s="2">
-        <f>(17500/C31)*(17500/D31)</f>
+        <f t="shared" si="1"/>
         <v>1196289.0625</v>
       </c>
       <c r="K31" s="2">
-        <f>(J31/(2+((C31+D31)/(C31*D31))))</f>
+        <f t="shared" si="5"/>
         <v>554800.72463768115</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.36878038194444446</v>
       </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>30.202628571428573</v>
+      </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>49</v>
       </c>
@@ -6742,11 +6864,11 @@
         <v>8</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="E32">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="F32" s="2">
@@ -6762,19 +6884,23 @@
         <v>273279</v>
       </c>
       <c r="J32" s="2">
-        <f>(17500/C32)*(17500/D32)</f>
+        <f t="shared" si="1"/>
         <v>598144.53125</v>
       </c>
       <c r="K32" s="2">
-        <f>(J32/(2+((C32+D32)/(C32*D32))))</f>
+        <f t="shared" si="5"/>
         <v>279425.18248175184</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.73173177083333329</v>
       </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>15.615942857142857</v>
+      </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>50</v>
       </c>
@@ -6785,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F33" s="2">
@@ -6801,19 +6927,23 @@
         <v>4829953</v>
       </c>
       <c r="J33" s="2">
-        <f>(17500/C33)*(17500/D33)</f>
+        <f t="shared" si="1"/>
         <v>19140625</v>
       </c>
       <c r="K33" s="2">
-        <f>(J33/(2+((C33+D33)/(C33*D33))))</f>
+        <f t="shared" si="5"/>
         <v>6250000</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3984374999999999E-2</v>
       </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>275.99731428571431</v>
+      </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>51</v>
       </c>
@@ -6821,11 +6951,11 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D39" si="4">D33*2</f>
+        <f t="shared" ref="D34:D39" si="9">D33*2</f>
         <v>2</v>
       </c>
       <c r="E34">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F34" s="2">
@@ -6841,19 +6971,23 @@
         <v>2554960</v>
       </c>
       <c r="J34" s="2">
-        <f>(17500/C34)*(17500/D34)</f>
+        <f t="shared" si="1"/>
         <v>9570312.5</v>
       </c>
       <c r="K34" s="2">
-        <f>(J34/(2+((C34+D34)/(C34*D34))))</f>
+        <f t="shared" si="5"/>
         <v>3734756.0975609757</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.6210937499999997E-2</v>
       </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>145.9977142857143</v>
+      </c>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:13" ht="15">
       <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
@@ -6861,11 +6995,11 @@
         <v>16</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E35" s="6">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F35" s="6">
@@ -6881,19 +7015,23 @@
         <v>1399808</v>
       </c>
       <c r="J35" s="6">
-        <f>(17500/C35)*(17500/D35)</f>
+        <f t="shared" si="1"/>
         <v>4785156.25</v>
       </c>
       <c r="K35" s="2">
-        <f>(J35/(2+((C35+D35)/(C35*D35))))</f>
+        <f t="shared" si="5"/>
         <v>2069256.7567567567</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11128038194444445</v>
       </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>79.989028571428577</v>
+      </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>53</v>
       </c>
@@ -6901,11 +7039,11 @@
         <v>16</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E36">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="F36" s="2">
@@ -6921,19 +7059,23 @@
         <v>839810</v>
       </c>
       <c r="J36" s="2">
-        <f>(17500/C36)*(17500/D36)</f>
+        <f t="shared" si="1"/>
         <v>2392578.125</v>
       </c>
       <c r="K36" s="2">
-        <f>(J36/(2+((C36+D36)/(C36*D36))))</f>
+        <f t="shared" si="5"/>
         <v>1093750</v>
       </c>
       <c r="L36" s="11">
         <f>(F36/230400)</f>
         <v>0.20176649305555555</v>
       </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>47.989142857142859</v>
+      </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>54</v>
       </c>
@@ -6941,11 +7083,11 @@
         <v>16</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="E37">
-        <f>C37*D37</f>
+        <f t="shared" ref="E37:E53" si="10">C37*D37</f>
         <v>256</v>
       </c>
       <c r="F37" s="2">
@@ -6961,19 +7103,23 @@
         <v>478134</v>
       </c>
       <c r="J37" s="2">
-        <f>(17500/C37)*(17500/D37)</f>
+        <f t="shared" ref="J37:J53" si="11">(17500/C37)*(17500/D37)</f>
         <v>1196289.0625</v>
       </c>
       <c r="K37" s="2">
-        <f>(J37/(2+((C37+D37)/(C37*D37))))</f>
+        <f t="shared" si="5"/>
         <v>562959.5588235294</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ref="L37:L53" si="5">(F37/230400)</f>
+        <f t="shared" ref="L37:L53" si="12">(F37/230400)</f>
         <v>0.38315538194444443</v>
       </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>27.321942857142858</v>
+      </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>55</v>
       </c>
@@ -6981,11 +7127,11 @@
         <v>16</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="E38">
-        <f>C38*D38</f>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="F38" s="2">
@@ -7001,19 +7147,23 @@
         <v>259908</v>
       </c>
       <c r="J38" s="2">
-        <f>(17500/C38)*(17500/D38)</f>
+        <f t="shared" si="11"/>
         <v>598144.53125</v>
       </c>
       <c r="K38" s="2">
-        <f>(J38/(2+((C38+D38)/(C38*D38))))</f>
+        <f t="shared" si="5"/>
         <v>285680.97014925373</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.74537326388888892</v>
       </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>14.851885714285714</v>
+      </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>56</v>
       </c>
@@ -7021,11 +7171,11 @@
         <v>16</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="E39">
-        <f>C39*D39</f>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="F39" s="2">
@@ -7041,19 +7191,23 @@
         <v>134313</v>
       </c>
       <c r="J39" s="2">
-        <f>(17500/C39)*(17500/D39)</f>
+        <f t="shared" si="11"/>
         <v>299072.265625</v>
       </c>
       <c r="K39" s="2">
-        <f>(J39/(2+((C39+D39)/(C39*D39))))</f>
+        <f t="shared" si="5"/>
         <v>143914.47368421053</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.428220486111111</v>
       </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>7.6750285714285713</v>
+      </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>57</v>
       </c>
@@ -7064,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>C40*D40</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="F40" s="2">
@@ -7080,19 +7234,23 @@
         <v>2187415</v>
       </c>
       <c r="J40" s="2">
-        <f>(17500/C40)*(17500/D40)</f>
+        <f t="shared" si="11"/>
         <v>9570312.5</v>
       </c>
       <c r="K40" s="2">
-        <f>(J40/(2+((C40+D40)/(C40*D40))))</f>
+        <f t="shared" si="5"/>
         <v>3157216.494845361</v>
       </c>
       <c r="L40" s="11">
         <f>(F40/230400)</f>
         <v>0.10763020833333334</v>
       </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>124.99514285714285</v>
+      </c>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:13" ht="15">
       <c r="B41" s="6" t="s">
         <v>58</v>
       </c>
@@ -7100,11 +7258,11 @@
         <v>32</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:D46" si="6">D40*2</f>
+        <f t="shared" ref="D41:D46" si="13">D40*2</f>
         <v>2</v>
       </c>
       <c r="E41" s="6">
-        <f>C41*D41</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="F41" s="6">
@@ -7120,19 +7278,23 @@
         <v>1111228</v>
       </c>
       <c r="J41" s="6">
-        <f>(17500/C41)*(17500/D41)</f>
+        <f t="shared" si="11"/>
         <v>4785156.25</v>
       </c>
       <c r="K41" s="2">
-        <f>(J41/(2+((C41+D41)/(C41*D41))))</f>
+        <f t="shared" si="5"/>
         <v>1890432.0987654321</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.1567361111111111</v>
       </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>63.498742857142858</v>
+      </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -7140,11 +7302,11 @@
         <v>32</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="E42">
-        <f>C42*D42</f>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="F42" s="2">
@@ -7160,19 +7322,23 @@
         <v>611737</v>
       </c>
       <c r="J42" s="2">
-        <f>(17500/C42)*(17500/D42)</f>
+        <f t="shared" si="11"/>
         <v>2392578.125</v>
       </c>
       <c r="K42" s="2">
-        <f>(J42/(2+((C42+D42)/(C42*D42))))</f>
+        <f t="shared" si="5"/>
         <v>1048801.3698630137</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.24256944444444445</v>
       </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>34.956400000000002</v>
+      </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>60</v>
       </c>
@@ -7180,11 +7346,11 @@
         <v>32</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="E43">
-        <f>C43*D43</f>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="F43" s="2">
@@ -7200,19 +7366,23 @@
         <v>356298</v>
       </c>
       <c r="J43" s="2">
-        <f>(17500/C43)*(17500/D43)</f>
+        <f t="shared" si="11"/>
         <v>1196289.0625</v>
       </c>
       <c r="K43" s="2">
-        <f>(J43/(2+((C43+D43)/(C43*D43))))</f>
+        <f t="shared" si="5"/>
         <v>554800.72463768115</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.42919270833333334</v>
       </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>20.359885714285713</v>
+      </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -7220,11 +7390,11 @@
         <v>32</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="E44">
-        <f>C44*D44</f>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="F44" s="2">
@@ -7240,19 +7410,23 @@
         <v>226255</v>
       </c>
       <c r="J44" s="2">
-        <f>(17500/C44)*(17500/D44)</f>
+        <f t="shared" si="11"/>
         <v>598144.53125</v>
       </c>
       <c r="K44" s="2">
-        <f>(J44/(2+((C44+D44)/(C44*D44))))</f>
+        <f t="shared" si="5"/>
         <v>285680.97014925373</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.79318576388888884</v>
       </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>12.928857142857144</v>
+      </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -7260,11 +7434,11 @@
         <v>32</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="E45">
-        <f>C45*D45</f>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="F45" s="2">
@@ -7280,19 +7454,23 @@
         <v>128818</v>
       </c>
       <c r="J45" s="2">
-        <f>(17500/C45)*(17500/D45)</f>
+        <f t="shared" si="11"/>
         <v>299072.265625</v>
       </c>
       <c r="K45" s="2">
-        <f>(J45/(2+((C45+D45)/(C45*D45))))</f>
+        <f t="shared" si="5"/>
         <v>145004.73484848486</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.4674696180555555</v>
       </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>7.3610285714285713</v>
+      </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>63</v>
       </c>
@@ -7300,11 +7478,11 @@
         <v>32</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="E46">
-        <f>C46*D46</f>
+        <f t="shared" si="10"/>
         <v>2048</v>
       </c>
       <c r="F46" s="2">
@@ -7320,19 +7498,23 @@
         <v>66315</v>
       </c>
       <c r="J46" s="2">
-        <f>(17500/C46)*(17500/D46)</f>
+        <f t="shared" si="11"/>
         <v>149536.1328125</v>
       </c>
       <c r="K46" s="2">
-        <f>(J46/(2+((C46+D46)/(C46*D46))))</f>
+        <f t="shared" si="5"/>
         <v>73055.82061068702</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9.377200520833334</v>
       </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>3.7894285714285716</v>
+      </c>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:13" ht="15">
       <c r="B47" s="6" t="s">
         <v>64</v>
       </c>
@@ -7343,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="6">
-        <f>C47*D47</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="F47" s="6">
@@ -7359,19 +7541,23 @@
         <v>979202</v>
       </c>
       <c r="J47" s="6">
-        <f>(17500/C47)*(17500/D47)</f>
+        <f t="shared" si="11"/>
         <v>4785156.25</v>
       </c>
       <c r="K47" s="2">
-        <f>(J47/(2+((C47+D47)/(C47*D47))))</f>
+        <f t="shared" si="5"/>
         <v>1586787.5647668394</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.31811631944444446</v>
       </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>55.9544</v>
+      </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -7379,11 +7565,11 @@
         <v>64</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ref="D48:D53" si="7">D47*2</f>
+        <f t="shared" ref="D48:D53" si="14">D47*2</f>
         <v>2</v>
       </c>
       <c r="E48">
-        <f>C48*D48</f>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="F48" s="2">
@@ -7399,19 +7585,23 @@
         <v>498352</v>
       </c>
       <c r="J48" s="2">
-        <f>(17500/C48)*(17500/D48)</f>
+        <f t="shared" si="11"/>
         <v>2392578.125</v>
       </c>
       <c r="K48" s="2">
-        <f>(J48/(2+((C48+D48)/(C48*D48))))</f>
+        <f t="shared" si="5"/>
         <v>951086.95652173914</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.42891927083333331</v>
       </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>28.477257142857145</v>
+      </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>66</v>
       </c>
@@ -7419,11 +7609,11 @@
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E49">
-        <f>C49*D49</f>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="F49" s="2">
@@ -7439,19 +7629,23 @@
         <v>249357</v>
       </c>
       <c r="J49" s="2">
-        <f>(17500/C49)*(17500/D49)</f>
+        <f t="shared" si="11"/>
         <v>1196289.0625</v>
       </c>
       <c r="K49" s="2">
-        <f>(J49/(2+((C49+D49)/(C49*D49))))</f>
+        <f t="shared" si="5"/>
         <v>528017.24137931038</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.61723958333333329</v>
       </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>14.248971428571428</v>
+      </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>67</v>
       </c>
@@ -7459,11 +7653,11 @@
         <v>64</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E50">
-        <f>C50*D50</f>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="F50" s="2">
@@ -7479,19 +7673,23 @@
         <v>144148</v>
       </c>
       <c r="J50" s="2">
-        <f>(17500/C50)*(17500/D50)</f>
+        <f t="shared" si="11"/>
         <v>598144.53125</v>
       </c>
       <c r="K50" s="2">
-        <f>(J50/(2+((C50+D50)/(C50*D50))))</f>
+        <f t="shared" si="5"/>
         <v>279425.18248175184</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.96773871527777777</v>
       </c>
+      <c r="M50" s="13">
+        <f t="shared" si="4"/>
+        <v>8.2370285714285707</v>
+      </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -7499,11 +7697,11 @@
         <v>64</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="E51">
-        <f>C51*D51</f>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="F51" s="2">
@@ -7519,19 +7717,23 @@
         <v>94999</v>
       </c>
       <c r="J51" s="2">
-        <f>(17500/C51)*(17500/D51)</f>
+        <f t="shared" si="11"/>
         <v>299072.265625</v>
       </c>
       <c r="K51" s="2">
-        <f>(J51/(2+((C51+D51)/(C51*D51))))</f>
+        <f t="shared" si="5"/>
         <v>143914.47368421053</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.6403124999999998</v>
       </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>5.4285142857142858</v>
+      </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -7539,11 +7741,11 @@
         <v>64</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="E52">
-        <f>C52*D52</f>
+        <f t="shared" si="10"/>
         <v>2048</v>
       </c>
       <c r="F52" s="2">
@@ -7559,19 +7761,23 @@
         <v>60066</v>
       </c>
       <c r="J52" s="2">
-        <f>(17500/C52)*(17500/D52)</f>
+        <f t="shared" si="11"/>
         <v>149536.1328125</v>
       </c>
       <c r="K52" s="2">
-        <f>(J52/(2+((C52+D52)/(C52*D52))))</f>
+        <f t="shared" si="5"/>
         <v>73055.82061068702</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9.5474739583333328</v>
       </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>3.4323428571428574</v>
+      </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -7579,11 +7785,11 @@
         <v>64</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="E53">
-        <f>C53*D53</f>
+        <f t="shared" si="10"/>
         <v>4096</v>
       </c>
       <c r="F53" s="2"/>
@@ -7593,19 +7799,23 @@
         <v>32220</v>
       </c>
       <c r="J53" s="2">
-        <f>(17500/C53)*(17500/D53)</f>
+        <f t="shared" si="11"/>
         <v>74768.06640625</v>
       </c>
       <c r="K53" s="2">
-        <f>(J53/(2+((C53+D53)/(C53*D53))))</f>
+        <f t="shared" si="5"/>
         <v>36808.894230769234</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="M53" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8411428571428572</v>
+      </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>71</v>
       </c>
